--- a/01_studies/01_Laborstudie ProVisioNET/R script/demographic data/data/data_empschul_labor_lehrperson.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/R script/demographic data/data/data_empschul_labor_lehrperson.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\R script\demographic data\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/R script/demographic data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6454FEA-DCEA-4744-B84A-D0C11107A2FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{7238F587-36CE-415D-A3B2-CD0FFA67C313}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="empschul_labor_lehrperson" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="117">
   <si>
     <t>CASE</t>
   </si>
@@ -343,33 +343,12 @@
     <t>DaZ</t>
   </si>
   <si>
-    <t>Nachhilfe, Hausaufgabenbetreuung, FSJ an einer Schule</t>
-  </si>
-  <si>
-    <t>GTA-Kursleiterin an mehreren Schulen für Kunst, Theater, Fördern (2,5 Jahre)</t>
-  </si>
-  <si>
     <t>Dozent an der Uni</t>
   </si>
   <si>
     <t>Dozent</t>
   </si>
   <si>
-    <t>Emsoz</t>
-  </si>
-  <si>
-    <t>LE</t>
-  </si>
-  <si>
-    <t>GSD</t>
-  </si>
-  <si>
-    <t>Sach</t>
-  </si>
-  <si>
-    <t>Start Training</t>
-  </si>
-  <si>
     <t>Latein</t>
   </si>
   <si>
@@ -389,12 +368,6 @@
   </si>
   <si>
     <t>Französisch</t>
-  </si>
-  <si>
-    <t>FSJ in einer Schule für Körperbehinderte</t>
-  </si>
-  <si>
-    <t>Leitung von Jugendgruppen und Ferienfreizeiten</t>
   </si>
   <si>
     <t>Spa</t>
@@ -756,11 +729,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN42"/>
+  <dimension ref="A1:BN33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL36" sqref="AL36"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL37" sqref="AL37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="BM2" s="4">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="BN2" s="1">
         <v>0</v>
@@ -1354,10 +1327,10 @@
         <v>1</v>
       </c>
       <c r="BM3" s="4">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="BN3" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.25">
@@ -1519,7 +1492,7 @@
         <v>227</v>
       </c>
       <c r="BD4" s="1">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="BE4" s="3"/>
       <c r="BF4" s="3">
@@ -1544,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="BM4" s="4">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="BN4" s="1">
         <v>0</v>
@@ -1707,7 +1680,7 @@
         <v>439</v>
       </c>
       <c r="BD5" s="1">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="BE5" s="3"/>
       <c r="BF5" s="3">
@@ -1732,10 +1705,10 @@
         <v>1</v>
       </c>
       <c r="BM5" s="4">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="BN5" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.25">
@@ -1920,10 +1893,10 @@
         <v>1</v>
       </c>
       <c r="BM6" s="4">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="BN6" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.25">
@@ -2108,10 +2081,10 @@
         <v>1</v>
       </c>
       <c r="BM7" s="4">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="BN7" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.25">
@@ -2295,7 +2268,7 @@
         <v>1.01</v>
       </c>
       <c r="BN8" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.25">
@@ -2474,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="BM9" s="4">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="BN9" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.25">
@@ -2662,10 +2635,10 @@
         <v>1</v>
       </c>
       <c r="BM10" s="4">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
       <c r="BN10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.25">
@@ -2850,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="BM11" s="4">
-        <v>1.08</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="BN11" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.25">
@@ -3015,7 +2988,7 @@
         <v>252</v>
       </c>
       <c r="BD12" s="1">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="BE12" s="3"/>
       <c r="BF12" s="3">
@@ -3040,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="BM12" s="4">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="BN12" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.25">
@@ -3228,10 +3201,10 @@
         <v>1</v>
       </c>
       <c r="BM13" s="4">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="BN13" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.25">
@@ -3412,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="BM14" s="4">
-        <v>1.0900000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="BN14" s="1">
         <v>8</v>
@@ -3600,10 +3573,10 @@
         <v>1</v>
       </c>
       <c r="BM15" s="4">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="BN15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.25">
@@ -3759,7 +3732,7 @@
         <v>273</v>
       </c>
       <c r="BD16" s="1">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="BE16" s="3"/>
       <c r="BF16" s="3">
@@ -3784,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="BM16" s="4">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="BN16" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:66" x14ac:dyDescent="0.25">
@@ -3949,7 +3922,7 @@
         <v>153</v>
       </c>
       <c r="BD17" s="1">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="BE17" s="3"/>
       <c r="BF17" s="3">
@@ -3974,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="BM17" s="4">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="BN17" s="1">
         <v>9</v>
@@ -4158,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="BM18" s="4">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="BN18" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:66" x14ac:dyDescent="0.25">
@@ -4321,7 +4294,7 @@
         <v>99</v>
       </c>
       <c r="BD19" s="1">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="BE19" s="3"/>
       <c r="BF19" s="3">
@@ -4346,10 +4319,10 @@
         <v>1</v>
       </c>
       <c r="BM19" s="4">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="BN19" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:66" x14ac:dyDescent="0.25">
@@ -4534,10 +4507,10 @@
         <v>1</v>
       </c>
       <c r="BM20" s="4">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
       <c r="BN20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:66" x14ac:dyDescent="0.25">
@@ -4691,7 +4664,7 @@
         <v>187</v>
       </c>
       <c r="BD21" s="1">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="BE21" s="3"/>
       <c r="BF21" s="3">
@@ -4716,10 +4689,10 @@
         <v>1</v>
       </c>
       <c r="BM21" s="4">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="BN21" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:66" x14ac:dyDescent="0.25">
@@ -4879,7 +4852,7 @@
         <v>120</v>
       </c>
       <c r="BD22" s="1">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="BE22" s="3"/>
       <c r="BF22" s="3">
@@ -4904,10 +4877,10 @@
         <v>0</v>
       </c>
       <c r="BM22" s="4">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="BN22" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:66" x14ac:dyDescent="0.25">
@@ -5067,7 +5040,7 @@
         <v>170</v>
       </c>
       <c r="BD23" s="1">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="BE23" s="3"/>
       <c r="BF23" s="3">
@@ -5095,12 +5068,12 @@
         <v>0.65</v>
       </c>
       <c r="BN23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -5111,58 +5084,58 @@
         <v>67</v>
       </c>
       <c r="F24" s="3">
-        <v>44592.570231480997</v>
+        <v>44659.495833333</v>
       </c>
       <c r="G24" s="1">
         <v>3</v>
       </c>
       <c r="H24" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I24" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J24" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K24" s="1">
         <v>3</v>
       </c>
       <c r="L24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M24" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N24" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O24" s="1">
         <v>4</v>
       </c>
       <c r="P24" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q24" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R24" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S24" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U24" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V24" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W24" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X24" s="1">
         <v>3</v>
@@ -5177,120 +5150,112 @@
         <v>3</v>
       </c>
       <c r="AB24" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC24" s="1">
+        <v>90</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="1">
         <v>40</v>
       </c>
-      <c r="AD24" s="1">
-        <v>10</v>
-      </c>
-      <c r="AE24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF24" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ24" s="1">
-        <v>21</v>
-      </c>
       <c r="AK24" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL24" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AM24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN24" s="2" t="s">
-        <v>106</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="AN24" s="2"/>
       <c r="AO24" s="1">
-        <v>117</v>
+        <v>208</v>
       </c>
       <c r="AP24" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AQ24" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AR24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS24" s="1">
-        <v>3</v>
-      </c>
-      <c r="AT24" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY24" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AX24" s="1"/>
-      <c r="AY24" s="2"/>
       <c r="AZ24" s="1">
         <v>3</v>
       </c>
       <c r="BA24" s="1">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="BB24" s="1">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="BC24" s="1">
-        <v>220</v>
+        <v>317</v>
       </c>
       <c r="BD24" s="1">
-        <v>589</v>
+        <v>476</v>
       </c>
       <c r="BE24" s="3"/>
       <c r="BF24" s="3">
-        <v>44645.945416666997</v>
+        <v>44659.501342593001</v>
       </c>
       <c r="BG24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH24" s="1">
         <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ24" s="1">
         <v>3</v>
       </c>
       <c r="BK24" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM24" s="4">
-        <v>0.6</v>
+        <v>1.05</v>
       </c>
       <c r="BN24" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -5301,7 +5266,7 @@
         <v>67</v>
       </c>
       <c r="F25" s="3">
-        <v>44606.494259259001</v>
+        <v>44664.419814815003</v>
       </c>
       <c r="G25" s="1">
         <v>3</v>
@@ -5310,58 +5275,58 @@
         <v>4</v>
       </c>
       <c r="I25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K25" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O25" s="1">
         <v>3</v>
       </c>
       <c r="P25" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q25" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T25" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V25" s="1">
         <v>3</v>
       </c>
       <c r="W25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X25" s="1">
         <v>3</v>
       </c>
       <c r="Y25" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA25" s="1">
         <v>4</v>
@@ -5370,10 +5335,10 @@
         <v>4</v>
       </c>
       <c r="AC25" s="1">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AD25" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AE25" s="1">
         <v>1</v>
@@ -5391,65 +5356,61 @@
         <v>1</v>
       </c>
       <c r="AJ25" s="1">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AK25" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AL25" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AM25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO25" s="1">
+        <v>209</v>
+      </c>
+      <c r="AP25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AN25" s="2"/>
-      <c r="AO25" s="1">
-        <v>118</v>
-      </c>
-      <c r="AP25" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="AQ25" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AR25" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS25" s="1">
-        <v>5</v>
-      </c>
-      <c r="AT25" s="1">
-        <v>10</v>
-      </c>
-      <c r="AU25" s="1">
-        <v>6</v>
-      </c>
-      <c r="AV25" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX25" s="1"/>
-      <c r="AY25" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY25" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="AZ25" s="1">
         <v>3</v>
       </c>
       <c r="BA25" s="1">
-        <v>73</v>
+        <v>5708</v>
       </c>
       <c r="BB25" s="1">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="BC25" s="1">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="BD25" s="1">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="BE25" s="3"/>
       <c r="BF25" s="3">
-        <v>44645.945914352</v>
+        <v>44732.625381944003</v>
       </c>
       <c r="BG25" s="1">
         <v>0</v>
@@ -5458,27 +5419,27 @@
         <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ25" s="1">
         <v>3</v>
       </c>
       <c r="BK25" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BL25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM25" s="4">
-        <v>1.23</v>
+        <v>1.06</v>
       </c>
       <c r="BN25" s="1">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -5489,13 +5450,13 @@
         <v>67</v>
       </c>
       <c r="F26" s="3">
-        <v>44608.485983796003</v>
+        <v>44677.662928240999</v>
       </c>
       <c r="G26" s="1">
         <v>4</v>
       </c>
       <c r="H26" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26" s="1">
         <v>4</v>
@@ -5504,7 +5465,7 @@
         <v>3</v>
       </c>
       <c r="K26" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26" s="1">
         <v>2</v>
@@ -5513,25 +5474,25 @@
         <v>3</v>
       </c>
       <c r="N26" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O26" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P26" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R26" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S26" s="1">
         <v>4</v>
       </c>
       <c r="T26" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U26" s="1">
         <v>4</v>
@@ -5540,7 +5501,7 @@
         <v>4</v>
       </c>
       <c r="W26" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X26" s="1">
         <v>3</v>
@@ -5552,16 +5513,16 @@
         <v>3</v>
       </c>
       <c r="AA26" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB26" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC26" s="1">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AD26" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE26" s="1">
         <v>1</v>
@@ -5579,72 +5540,66 @@
         <v>1</v>
       </c>
       <c r="AJ26" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AK26" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM26" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="AM26" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="AN26" s="2"/>
       <c r="AO26" s="1">
-        <v>119</v>
+        <v>210</v>
       </c>
       <c r="AP26" s="2" t="s">
         <v>71</v>
       </c>
       <c r="AQ26" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR26" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS26" s="1">
-        <v>11</v>
-      </c>
-      <c r="AT26" s="1">
-        <v>26</v>
-      </c>
-      <c r="AU26" s="1">
-        <v>8</v>
-      </c>
-      <c r="AV26" s="1">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1"/>
       <c r="AW26" s="2"/>
-      <c r="AX26" s="1"/>
+      <c r="AX26" s="1">
+        <v>2</v>
+      </c>
       <c r="AY26" s="2"/>
       <c r="AZ26" s="1">
         <v>3</v>
       </c>
       <c r="BA26" s="1">
-        <v>96</v>
+        <v>2195</v>
       </c>
       <c r="BB26" s="1">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="BC26" s="1">
-        <v>151</v>
+        <v>292</v>
       </c>
       <c r="BD26" s="1">
-        <v>363</v>
+        <v>434</v>
       </c>
       <c r="BE26" s="3"/>
       <c r="BF26" s="3">
-        <v>44645.946666666998</v>
+        <v>44677.692245370003</v>
       </c>
       <c r="BG26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH26" s="1">
         <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ26" s="1">
         <v>3</v>
@@ -5656,15 +5611,15 @@
         <v>1</v>
       </c>
       <c r="BM26" s="4">
-        <v>0.97</v>
+        <v>0.84</v>
       </c>
       <c r="BN26" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -5675,16 +5630,16 @@
         <v>67</v>
       </c>
       <c r="F27" s="3">
-        <v>44620.585578703998</v>
+        <v>44686.616041667003</v>
       </c>
       <c r="G27" s="1">
         <v>4</v>
       </c>
       <c r="H27" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I27" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J27" s="1">
         <v>3</v>
@@ -5693,43 +5648,43 @@
         <v>3</v>
       </c>
       <c r="L27" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N27" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O27" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P27" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q27" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S27" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T27" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U27" s="1">
         <v>4</v>
       </c>
       <c r="V27" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W27" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X27" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y27" s="1">
         <v>3</v>
@@ -5744,7 +5699,7 @@
         <v>4</v>
       </c>
       <c r="AC27" s="1">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="AD27" s="1">
         <v>3</v>
@@ -5765,86 +5720,82 @@
         <v>1</v>
       </c>
       <c r="AJ27" s="1">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="AK27" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AL27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM27" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AM27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN27" s="2"/>
+      <c r="AN27" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="AO27" s="1">
-        <v>120</v>
+        <v>211</v>
       </c>
       <c r="AP27" s="2" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="AQ27" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AR27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS27" s="1">
-        <v>9</v>
-      </c>
-      <c r="AT27" s="1">
-        <v>40</v>
-      </c>
-      <c r="AU27" s="1">
-        <v>12</v>
-      </c>
-      <c r="AV27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX27" s="1"/>
-      <c r="AY27" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1"/>
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="2"/>
+      <c r="AX27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY27" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="AZ27" s="1">
         <v>3</v>
       </c>
       <c r="BA27" s="1">
-        <v>3329</v>
+        <v>85</v>
       </c>
       <c r="BB27" s="1">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="BC27" s="1">
-        <v>162</v>
+        <v>574</v>
       </c>
       <c r="BD27" s="1">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="BE27" s="3"/>
       <c r="BF27" s="3">
-        <v>44645.947094907002</v>
+        <v>44686.624664351999</v>
       </c>
       <c r="BG27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH27" s="1">
         <v>0</v>
       </c>
       <c r="BI27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ27" s="1">
         <v>3</v>
       </c>
       <c r="BK27" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BL27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM27" s="4">
-        <v>0.64</v>
+        <v>0.82</v>
       </c>
       <c r="BN27" s="1">
         <v>2</v>
@@ -5852,7 +5803,7 @@
     </row>
     <row r="28" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -5863,16 +5814,16 @@
         <v>67</v>
       </c>
       <c r="F28" s="3">
-        <v>44622.452106481003</v>
+        <v>44686.702025462997</v>
       </c>
       <c r="G28" s="1">
         <v>3</v>
       </c>
       <c r="H28" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I28" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J28" s="1">
         <v>4</v>
@@ -5881,43 +5832,43 @@
         <v>3</v>
       </c>
       <c r="L28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M28" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N28" s="1">
         <v>3</v>
       </c>
       <c r="O28" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P28" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q28" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R28" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S28" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T28" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U28" s="1">
         <v>4</v>
       </c>
       <c r="V28" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W28" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X28" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y28" s="1">
         <v>3</v>
@@ -5932,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="AC28" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AD28" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AE28" s="1">
         <v>1</v>
@@ -5953,65 +5904,57 @@
         <v>1</v>
       </c>
       <c r="AJ28" s="1">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="AK28" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AL28" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AM28" s="2" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AN28" s="2"/>
       <c r="AO28" s="1">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="AP28" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AQ28" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR28" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS28" s="1">
-        <v>10</v>
-      </c>
-      <c r="AT28" s="1">
-        <v>70</v>
-      </c>
-      <c r="AU28" s="1">
-        <v>16</v>
-      </c>
-      <c r="AV28" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW28" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AX28" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1"/>
+      <c r="AU28" s="1"/>
+      <c r="AV28" s="1"/>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="1">
+        <v>2</v>
+      </c>
       <c r="AY28" s="2"/>
       <c r="AZ28" s="1">
         <v>3</v>
       </c>
       <c r="BA28" s="1">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="BB28" s="1">
-        <v>248</v>
+        <v>62</v>
       </c>
       <c r="BC28" s="1">
-        <v>205</v>
+        <v>282</v>
       </c>
       <c r="BD28" s="1">
-        <v>525</v>
+        <v>493</v>
       </c>
       <c r="BE28" s="3"/>
       <c r="BF28" s="3">
-        <v>44645.948090277998</v>
+        <v>44719.456354167</v>
       </c>
       <c r="BG28" s="1">
         <v>0</v>
@@ -6032,15 +5975,15 @@
         <v>1</v>
       </c>
       <c r="BM28" s="4">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="BN28" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -6051,7 +5994,7 @@
         <v>67</v>
       </c>
       <c r="F29" s="3">
-        <v>44659.495833333</v>
+        <v>44700.568599537</v>
       </c>
       <c r="G29" s="1">
         <v>3</v>
@@ -6060,31 +6003,31 @@
         <v>4</v>
       </c>
       <c r="I29" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J29" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K29" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M29" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N29" s="1">
         <v>4</v>
       </c>
       <c r="O29" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P29" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q29" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R29" s="1">
         <v>4</v>
@@ -6093,25 +6036,25 @@
         <v>4</v>
       </c>
       <c r="T29" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U29" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V29" s="1">
         <v>4</v>
       </c>
       <c r="W29" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X29" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y29" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z29" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA29" s="1">
         <v>3</v>
@@ -6120,7 +6063,7 @@
         <v>3</v>
       </c>
       <c r="AC29" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AD29" s="1">
         <v>20</v>
@@ -6141,20 +6084,20 @@
         <v>1</v>
       </c>
       <c r="AJ29" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AK29" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AL29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM29" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="AM29" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="AN29" s="2"/>
       <c r="AO29" s="1">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AP29" s="2" t="s">
         <v>76</v>
@@ -6168,61 +6111,63 @@
       <c r="AS29" s="1"/>
       <c r="AT29" s="1"/>
       <c r="AU29" s="1"/>
-      <c r="AV29" s="1"/>
+      <c r="AV29" s="1">
+        <v>-9</v>
+      </c>
       <c r="AW29" s="2"/>
       <c r="AX29" s="1">
         <v>1</v>
       </c>
       <c r="AY29" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AZ29" s="1">
         <v>3</v>
       </c>
       <c r="BA29" s="1">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="BB29" s="1">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC29" s="1">
-        <v>317</v>
+        <v>240</v>
       </c>
       <c r="BD29" s="1">
-        <v>476</v>
+        <v>421</v>
       </c>
       <c r="BE29" s="3"/>
       <c r="BF29" s="3">
-        <v>44659.501342593001</v>
+        <v>44732.615266203997</v>
       </c>
       <c r="BG29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH29" s="1">
         <v>0</v>
       </c>
       <c r="BI29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BJ29" s="1">
         <v>3</v>
       </c>
       <c r="BK29" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BL29" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BM29" s="4">
-        <v>1.06</v>
+        <v>0.96</v>
       </c>
       <c r="BN29" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -6233,19 +6178,19 @@
         <v>67</v>
       </c>
       <c r="F30" s="3">
-        <v>44664.419814815003</v>
+        <v>44706.542893518999</v>
       </c>
       <c r="G30" s="1">
         <v>3</v>
       </c>
       <c r="H30" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I30" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J30" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K30" s="1">
         <v>3</v>
@@ -6266,7 +6211,7 @@
         <v>4</v>
       </c>
       <c r="Q30" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R30" s="1">
         <v>4</v>
@@ -6287,10 +6232,10 @@
         <v>4</v>
       </c>
       <c r="X30" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y30" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z30" s="1">
         <v>4</v>
@@ -6302,49 +6247,47 @@
         <v>4</v>
       </c>
       <c r="AC30" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AD30" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>39</v>
+      </c>
+      <c r="AK30" s="1">
         <v>10</v>
       </c>
-      <c r="AE30" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF30" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG30" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH30" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI30" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ30" s="1">
-        <v>41</v>
-      </c>
-      <c r="AK30" s="1">
-        <v>12</v>
-      </c>
       <c r="AL30" s="2" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="AM30" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN30" s="2" t="s">
-        <v>106</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="AN30" s="2"/>
       <c r="AO30" s="1">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AP30" s="2" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="AQ30" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AR30" s="1">
         <v>2</v>
@@ -6352,32 +6295,32 @@
       <c r="AS30" s="1"/>
       <c r="AT30" s="1"/>
       <c r="AU30" s="1"/>
-      <c r="AV30" s="1"/>
+      <c r="AV30" s="1">
+        <v>-9</v>
+      </c>
       <c r="AW30" s="2"/>
       <c r="AX30" s="1">
-        <v>1</v>
-      </c>
-      <c r="AY30" s="2" t="s">
-        <v>110</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AY30" s="2"/>
       <c r="AZ30" s="1">
         <v>3</v>
       </c>
       <c r="BA30" s="1">
-        <v>5708</v>
+        <v>97</v>
       </c>
       <c r="BB30" s="1">
-        <v>47</v>
+        <v>686</v>
       </c>
       <c r="BC30" s="1">
-        <v>138</v>
+        <v>278</v>
       </c>
       <c r="BD30" s="1">
-        <v>275</v>
+        <v>460</v>
       </c>
       <c r="BE30" s="3"/>
       <c r="BF30" s="3">
-        <v>44732.625381944003</v>
+        <v>44732.616504630001</v>
       </c>
       <c r="BG30" s="1">
         <v>0</v>
@@ -6392,21 +6335,21 @@
         <v>3</v>
       </c>
       <c r="BK30" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BL30" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BM30" s="4">
-        <v>1.08</v>
+        <v>0.6</v>
       </c>
       <c r="BN30" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -6417,10 +6360,10 @@
         <v>67</v>
       </c>
       <c r="F31" s="3">
-        <v>44670.653993056003</v>
+        <v>44706.636377315001</v>
       </c>
       <c r="G31" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H31" s="1">
         <v>3</v>
@@ -6429,67 +6372,67 @@
         <v>3</v>
       </c>
       <c r="J31" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K31" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M31" s="1">
         <v>3</v>
       </c>
       <c r="N31" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O31" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P31" s="1">
         <v>4</v>
       </c>
       <c r="Q31" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R31" s="1">
         <v>4</v>
       </c>
       <c r="S31" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T31" s="1">
         <v>3</v>
       </c>
       <c r="U31" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V31" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W31" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X31" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y31" s="1">
         <v>3</v>
       </c>
       <c r="Z31" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA31" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB31" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC31" s="1">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD31" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE31" s="1">
         <v>1</v>
@@ -6507,96 +6450,90 @@
         <v>1</v>
       </c>
       <c r="AJ31" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AK31" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL31" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AM31" s="2" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="AN31" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="AO31" s="1">
-        <v>121</v>
+        <v>215</v>
       </c>
       <c r="AP31" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AQ31" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AR31" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS31" s="1">
-        <v>4</v>
-      </c>
-      <c r="AT31" s="1">
-        <v>4</v>
-      </c>
-      <c r="AU31" s="1">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
       <c r="AV31" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW31" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AX31" s="1"/>
+        <v>-9</v>
+      </c>
+      <c r="AW31" s="2"/>
+      <c r="AX31" s="1">
+        <v>2</v>
+      </c>
       <c r="AY31" s="2"/>
       <c r="AZ31" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA31" s="1">
-        <v>250</v>
+        <v>89</v>
       </c>
       <c r="BB31" s="1">
-        <v>239</v>
+        <v>395</v>
       </c>
       <c r="BC31" s="1">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="BD31" s="1">
-        <v>687</v>
+        <v>383</v>
       </c>
       <c r="BE31" s="3"/>
       <c r="BF31" s="3">
-        <v>44700.740243056003</v>
+        <v>44719.461111110999</v>
       </c>
       <c r="BG31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH31" s="1">
         <v>0</v>
       </c>
       <c r="BI31" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ31" s="1">
         <v>3</v>
       </c>
       <c r="BK31" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BL31" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BM31" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.73</v>
       </c>
       <c r="BN31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -6607,55 +6544,55 @@
         <v>67</v>
       </c>
       <c r="F32" s="3">
-        <v>44677.662928240999</v>
+        <v>44719.655393519002</v>
       </c>
       <c r="G32" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H32" s="1">
         <v>3</v>
       </c>
       <c r="I32" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J32" s="1">
         <v>3</v>
       </c>
       <c r="K32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M32" s="1">
         <v>3</v>
       </c>
       <c r="N32" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P32" s="1">
         <v>2</v>
       </c>
       <c r="Q32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R32" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S32" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T32" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U32" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V32" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W32" s="1">
         <v>3</v>
@@ -6664,22 +6601,22 @@
         <v>3</v>
       </c>
       <c r="Y32" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z32" s="1">
         <v>3</v>
       </c>
       <c r="AA32" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC32" s="1">
         <v>80</v>
       </c>
       <c r="AD32" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AE32" s="1">
         <v>1</v>
@@ -6697,26 +6634,26 @@
         <v>1</v>
       </c>
       <c r="AJ32" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AK32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL32" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AM32" s="2" t="s">
         <v>68</v>
       </c>
       <c r="AN32" s="2"/>
       <c r="AO32" s="1">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AP32" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AQ32" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AR32" s="1">
         <v>2</v>
@@ -6724,59 +6661,61 @@
       <c r="AS32" s="1"/>
       <c r="AT32" s="1"/>
       <c r="AU32" s="1"/>
-      <c r="AV32" s="1"/>
+      <c r="AV32" s="1">
+        <v>-9</v>
+      </c>
       <c r="AW32" s="2"/>
       <c r="AX32" s="1">
         <v>2</v>
       </c>
       <c r="AY32" s="2"/>
       <c r="AZ32" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA32" s="1">
-        <v>2195</v>
+        <v>86</v>
       </c>
       <c r="BB32" s="1">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="BC32" s="1">
-        <v>292</v>
+        <v>150</v>
       </c>
       <c r="BD32" s="1">
-        <v>428</v>
+        <v>309</v>
       </c>
       <c r="BE32" s="3"/>
       <c r="BF32" s="3">
-        <v>44677.692245370003</v>
+        <v>44719.740208333002</v>
       </c>
       <c r="BG32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH32" s="1">
         <v>0</v>
       </c>
       <c r="BI32" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ32" s="1">
         <v>3</v>
       </c>
       <c r="BK32" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="BL32" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BM32" s="4">
-        <v>0.87</v>
+        <v>1.18</v>
       </c>
       <c r="BN32" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -6787,19 +6726,19 @@
         <v>67</v>
       </c>
       <c r="F33" s="3">
-        <v>44686.616041667003</v>
+        <v>44725.504768519</v>
       </c>
       <c r="G33" s="1">
         <v>4</v>
       </c>
       <c r="H33" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I33" s="1">
         <v>3</v>
       </c>
       <c r="J33" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K33" s="1">
         <v>3</v>
@@ -6808,40 +6747,40 @@
         <v>4</v>
       </c>
       <c r="M33" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N33" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O33" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P33" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q33" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R33" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S33" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T33" s="1">
         <v>2</v>
       </c>
       <c r="U33" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V33" s="1">
         <v>4</v>
       </c>
       <c r="W33" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X33" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y33" s="1">
         <v>3</v>
@@ -6853,13 +6792,13 @@
         <v>4</v>
       </c>
       <c r="AB33" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC33" s="1">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AD33" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE33" s="1">
         <v>1</v>
@@ -6877,28 +6816,24 @@
         <v>1</v>
       </c>
       <c r="AJ33" s="1">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="AK33" s="1">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="AL33" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AM33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN33" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
       <c r="AO33" s="1">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AP33" s="2" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="AQ33" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AR33" s="1">
         <v>2</v>
@@ -6909,29 +6844,27 @@
       <c r="AV33" s="1"/>
       <c r="AW33" s="2"/>
       <c r="AX33" s="1">
-        <v>1</v>
-      </c>
-      <c r="AY33" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AY33" s="2"/>
       <c r="AZ33" s="1">
         <v>3</v>
       </c>
       <c r="BA33" s="1">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="BB33" s="1">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="BC33" s="1">
-        <v>574</v>
+        <v>115</v>
       </c>
       <c r="BD33" s="1">
-        <v>351</v>
+        <v>219</v>
       </c>
       <c r="BE33" s="3"/>
       <c r="BF33" s="3">
-        <v>44686.624664351999</v>
+        <v>44725.507314814997</v>
       </c>
       <c r="BG33" s="1">
         <v>1</v>
@@ -6946,1666 +6879,16 @@
         <v>3</v>
       </c>
       <c r="BK33" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BL33" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BM33" s="4">
-        <v>0.81</v>
+        <v>1.95</v>
       </c>
       <c r="BN33" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>173</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" s="3">
-        <v>44686.702025462997</v>
-      </c>
-      <c r="G34" s="1">
-        <v>3</v>
-      </c>
-      <c r="H34" s="1">
-        <v>4</v>
-      </c>
-      <c r="I34" s="1">
-        <v>3</v>
-      </c>
-      <c r="J34" s="1">
-        <v>4</v>
-      </c>
-      <c r="K34" s="1">
-        <v>3</v>
-      </c>
-      <c r="L34" s="1">
-        <v>3</v>
-      </c>
-      <c r="M34" s="1">
-        <v>3</v>
-      </c>
-      <c r="N34" s="1">
-        <v>3</v>
-      </c>
-      <c r="O34" s="1">
-        <v>3</v>
-      </c>
-      <c r="P34" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>3</v>
-      </c>
-      <c r="R34" s="1">
-        <v>3</v>
-      </c>
-      <c r="S34" s="1">
-        <v>3</v>
-      </c>
-      <c r="T34" s="1">
-        <v>2</v>
-      </c>
-      <c r="U34" s="1">
-        <v>4</v>
-      </c>
-      <c r="V34" s="1">
-        <v>3</v>
-      </c>
-      <c r="W34" s="1">
-        <v>3</v>
-      </c>
-      <c r="X34" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y34" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z34" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA34" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB34" s="1">
-        <v>3</v>
-      </c>
-      <c r="AC34" s="1">
-        <v>70</v>
-      </c>
-      <c r="AD34" s="1">
-        <v>20</v>
-      </c>
-      <c r="AE34" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF34" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG34" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH34" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI34" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ34" s="1">
-        <v>57</v>
-      </c>
-      <c r="AK34" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL34" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM34" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AN34" s="2"/>
-      <c r="AO34" s="1">
-        <v>212</v>
-      </c>
-      <c r="AP34" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ34" s="1">
-        <v>8</v>
-      </c>
-      <c r="AR34" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS34" s="1"/>
-      <c r="AT34" s="1"/>
-      <c r="AU34" s="1"/>
-      <c r="AV34" s="1"/>
-      <c r="AW34" s="2"/>
-      <c r="AX34" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY34" s="2"/>
-      <c r="AZ34" s="1">
-        <v>3</v>
-      </c>
-      <c r="BA34" s="1">
-        <v>149</v>
-      </c>
-      <c r="BB34" s="1">
-        <v>62</v>
-      </c>
-      <c r="BC34" s="1">
-        <v>282</v>
-      </c>
-      <c r="BD34" s="1">
-        <v>493</v>
-      </c>
-      <c r="BE34" s="3"/>
-      <c r="BF34" s="3">
-        <v>44719.456354167</v>
-      </c>
-      <c r="BG34" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH34" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI34" s="1">
-        <v>2</v>
-      </c>
-      <c r="BJ34" s="1">
-        <v>3</v>
-      </c>
-      <c r="BK34" s="1">
-        <v>3</v>
-      </c>
-      <c r="BL34" s="1">
-        <v>1</v>
-      </c>
-      <c r="BM34" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="BN34" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>174</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F35" s="3">
-        <v>44700.568599537</v>
-      </c>
-      <c r="G35" s="1">
-        <v>3</v>
-      </c>
-      <c r="H35" s="1">
-        <v>4</v>
-      </c>
-      <c r="I35" s="1">
-        <v>3</v>
-      </c>
-      <c r="J35" s="1">
-        <v>3</v>
-      </c>
-      <c r="K35" s="1">
-        <v>2</v>
-      </c>
-      <c r="L35" s="1">
-        <v>2</v>
-      </c>
-      <c r="M35" s="1">
-        <v>3</v>
-      </c>
-      <c r="N35" s="1">
-        <v>4</v>
-      </c>
-      <c r="O35" s="1">
-        <v>3</v>
-      </c>
-      <c r="P35" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>2</v>
-      </c>
-      <c r="R35" s="1">
-        <v>4</v>
-      </c>
-      <c r="S35" s="1">
-        <v>4</v>
-      </c>
-      <c r="T35" s="1">
-        <v>4</v>
-      </c>
-      <c r="U35" s="1">
-        <v>3</v>
-      </c>
-      <c r="V35" s="1">
-        <v>4</v>
-      </c>
-      <c r="W35" s="1">
-        <v>3</v>
-      </c>
-      <c r="X35" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y35" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z35" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA35" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB35" s="1">
-        <v>3</v>
-      </c>
-      <c r="AC35" s="1">
-        <v>95</v>
-      </c>
-      <c r="AD35" s="1">
-        <v>20</v>
-      </c>
-      <c r="AE35" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF35" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG35" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH35" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI35" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ35" s="1">
-        <v>35</v>
-      </c>
-      <c r="AK35" s="1">
-        <v>8</v>
-      </c>
-      <c r="AL35" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN35" s="2"/>
-      <c r="AO35" s="1">
-        <v>213</v>
-      </c>
-      <c r="AP35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AQ35" s="1">
-        <v>11</v>
-      </c>
-      <c r="AR35" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS35" s="1"/>
-      <c r="AT35" s="1"/>
-      <c r="AU35" s="1"/>
-      <c r="AV35" s="1">
-        <v>-9</v>
-      </c>
-      <c r="AW35" s="2"/>
-      <c r="AX35" s="1">
-        <v>1</v>
-      </c>
-      <c r="AY35" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AZ35" s="1">
-        <v>3</v>
-      </c>
-      <c r="BA35" s="1">
-        <v>114</v>
-      </c>
-      <c r="BB35" s="1">
-        <v>67</v>
-      </c>
-      <c r="BC35" s="1">
-        <v>240</v>
-      </c>
-      <c r="BD35" s="1">
-        <v>421</v>
-      </c>
-      <c r="BE35" s="3"/>
-      <c r="BF35" s="3">
-        <v>44732.615266203997</v>
-      </c>
-      <c r="BG35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI35" s="1">
-        <v>1</v>
-      </c>
-      <c r="BJ35" s="1">
-        <v>3</v>
-      </c>
-      <c r="BK35" s="1">
-        <v>12</v>
-      </c>
-      <c r="BL35" s="1">
-        <v>9</v>
-      </c>
-      <c r="BM35" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="BN35" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>175</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" s="3">
-        <v>44701.614374999997</v>
-      </c>
-      <c r="G36" s="1">
-        <v>3</v>
-      </c>
-      <c r="H36" s="1">
-        <v>3</v>
-      </c>
-      <c r="I36" s="1">
-        <v>4</v>
-      </c>
-      <c r="J36" s="1">
-        <v>3</v>
-      </c>
-      <c r="K36" s="1">
-        <v>3</v>
-      </c>
-      <c r="L36" s="1">
-        <v>2</v>
-      </c>
-      <c r="M36" s="1">
-        <v>3</v>
-      </c>
-      <c r="N36" s="1">
-        <v>2</v>
-      </c>
-      <c r="O36" s="1">
-        <v>4</v>
-      </c>
-      <c r="P36" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>3</v>
-      </c>
-      <c r="R36" s="1">
-        <v>3</v>
-      </c>
-      <c r="S36" s="1">
-        <v>3</v>
-      </c>
-      <c r="T36" s="1">
-        <v>3</v>
-      </c>
-      <c r="U36" s="1">
-        <v>4</v>
-      </c>
-      <c r="V36" s="1">
-        <v>3</v>
-      </c>
-      <c r="W36" s="1">
-        <v>3</v>
-      </c>
-      <c r="X36" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y36" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z36" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA36" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB36" s="1">
-        <v>3</v>
-      </c>
-      <c r="AC36" s="1">
-        <v>80</v>
-      </c>
-      <c r="AD36" s="1">
-        <v>10</v>
-      </c>
-      <c r="AE36" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF36" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG36" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH36" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI36" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ36" s="1">
-        <v>27</v>
-      </c>
-      <c r="AK36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM36" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN36" s="2"/>
-      <c r="AO36" s="1">
-        <v>123</v>
-      </c>
-      <c r="AP36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ36" s="1">
-        <v>5</v>
-      </c>
-      <c r="AR36" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS36" s="1">
-        <v>10</v>
-      </c>
-      <c r="AT36" s="1">
-        <v>36</v>
-      </c>
-      <c r="AU36" s="1">
-        <v>8</v>
-      </c>
-      <c r="AV36" s="1">
-        <v>2</v>
-      </c>
-      <c r="AW36" s="2"/>
-      <c r="AX36" s="1"/>
-      <c r="AY36" s="2"/>
-      <c r="AZ36" s="1">
-        <v>2</v>
-      </c>
-      <c r="BA36" s="1">
-        <v>121</v>
-      </c>
-      <c r="BB36" s="1">
-        <v>518</v>
-      </c>
-      <c r="BC36" s="1">
-        <v>177</v>
-      </c>
-      <c r="BD36" s="1">
-        <v>388</v>
-      </c>
-      <c r="BE36" s="3"/>
-      <c r="BF36" s="3">
-        <v>44732.624085648</v>
-      </c>
-      <c r="BG36" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH36" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI36" s="1">
-        <v>1</v>
-      </c>
-      <c r="BJ36" s="1">
-        <v>3</v>
-      </c>
-      <c r="BK36" s="1">
-        <v>3</v>
-      </c>
-      <c r="BL36" s="1">
-        <v>1</v>
-      </c>
-      <c r="BM36" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="BN36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>176</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="3">
-        <v>44706.542893518999</v>
-      </c>
-      <c r="G37" s="1">
-        <v>3</v>
-      </c>
-      <c r="H37" s="1">
-        <v>3</v>
-      </c>
-      <c r="I37" s="1">
-        <v>3</v>
-      </c>
-      <c r="J37" s="1">
-        <v>3</v>
-      </c>
-      <c r="K37" s="1">
-        <v>3</v>
-      </c>
-      <c r="L37" s="1">
-        <v>3</v>
-      </c>
-      <c r="M37" s="1">
-        <v>4</v>
-      </c>
-      <c r="N37" s="1">
-        <v>4</v>
-      </c>
-      <c r="O37" s="1">
-        <v>3</v>
-      </c>
-      <c r="P37" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>4</v>
-      </c>
-      <c r="R37" s="1">
-        <v>4</v>
-      </c>
-      <c r="S37" s="1">
-        <v>4</v>
-      </c>
-      <c r="T37" s="1">
-        <v>4</v>
-      </c>
-      <c r="U37" s="1">
-        <v>4</v>
-      </c>
-      <c r="V37" s="1">
-        <v>3</v>
-      </c>
-      <c r="W37" s="1">
-        <v>4</v>
-      </c>
-      <c r="X37" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y37" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z37" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA37" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB37" s="1">
-        <v>4</v>
-      </c>
-      <c r="AC37" s="1">
-        <v>30</v>
-      </c>
-      <c r="AD37" s="1">
-        <v>20</v>
-      </c>
-      <c r="AE37" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF37" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG37" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH37" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI37" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ37" s="1">
-        <v>39</v>
-      </c>
-      <c r="AK37" s="1">
-        <v>10</v>
-      </c>
-      <c r="AL37" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM37" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN37" s="2"/>
-      <c r="AO37" s="1">
-        <v>214</v>
-      </c>
-      <c r="AP37" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ37" s="1">
-        <v>6</v>
-      </c>
-      <c r="AR37" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS37" s="1"/>
-      <c r="AT37" s="1"/>
-      <c r="AU37" s="1"/>
-      <c r="AV37" s="1">
-        <v>-9</v>
-      </c>
-      <c r="AW37" s="2"/>
-      <c r="AX37" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY37" s="2"/>
-      <c r="AZ37" s="1">
-        <v>3</v>
-      </c>
-      <c r="BA37" s="1">
-        <v>97</v>
-      </c>
-      <c r="BB37" s="1">
-        <v>686</v>
-      </c>
-      <c r="BC37" s="1">
-        <v>278</v>
-      </c>
-      <c r="BD37" s="1">
-        <v>465</v>
-      </c>
-      <c r="BE37" s="3"/>
-      <c r="BF37" s="3">
-        <v>44732.616504630001</v>
-      </c>
-      <c r="BG37" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH37" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI37" s="1">
-        <v>1</v>
-      </c>
-      <c r="BJ37" s="1">
-        <v>3</v>
-      </c>
-      <c r="BK37" s="1">
-        <v>13</v>
-      </c>
-      <c r="BL37" s="1">
-        <v>9</v>
-      </c>
-      <c r="BM37" s="4">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="BN37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>177</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" s="3">
-        <v>44706.636377315001</v>
-      </c>
-      <c r="G38" s="1">
-        <v>4</v>
-      </c>
-      <c r="H38" s="1">
-        <v>3</v>
-      </c>
-      <c r="I38" s="1">
-        <v>3</v>
-      </c>
-      <c r="J38" s="1">
-        <v>4</v>
-      </c>
-      <c r="K38" s="1">
-        <v>3</v>
-      </c>
-      <c r="L38" s="1">
-        <v>4</v>
-      </c>
-      <c r="M38" s="1">
-        <v>3</v>
-      </c>
-      <c r="N38" s="1">
-        <v>4</v>
-      </c>
-      <c r="O38" s="1">
-        <v>4</v>
-      </c>
-      <c r="P38" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>3</v>
-      </c>
-      <c r="R38" s="1">
-        <v>4</v>
-      </c>
-      <c r="S38" s="1">
-        <v>3</v>
-      </c>
-      <c r="T38" s="1">
-        <v>3</v>
-      </c>
-      <c r="U38" s="1">
-        <v>3</v>
-      </c>
-      <c r="V38" s="1">
-        <v>4</v>
-      </c>
-      <c r="W38" s="1">
-        <v>4</v>
-      </c>
-      <c r="X38" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y38" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z38" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA38" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB38" s="1">
-        <v>4</v>
-      </c>
-      <c r="AC38" s="1">
-        <v>70</v>
-      </c>
-      <c r="AD38" s="1">
-        <v>10</v>
-      </c>
-      <c r="AE38" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF38" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG38" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH38" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI38" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ38" s="1">
-        <v>27</v>
-      </c>
-      <c r="AK38" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL38" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM38" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN38" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO38" s="1">
-        <v>215</v>
-      </c>
-      <c r="AP38" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AQ38" s="1">
-        <v>6</v>
-      </c>
-      <c r="AR38" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS38" s="1"/>
-      <c r="AT38" s="1"/>
-      <c r="AU38" s="1"/>
-      <c r="AV38" s="1">
-        <v>-9</v>
-      </c>
-      <c r="AW38" s="2"/>
-      <c r="AX38" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY38" s="2"/>
-      <c r="AZ38" s="1">
-        <v>3</v>
-      </c>
-      <c r="BA38" s="1">
-        <v>89</v>
-      </c>
-      <c r="BB38" s="1">
-        <v>395</v>
-      </c>
-      <c r="BC38" s="1">
-        <v>209</v>
-      </c>
-      <c r="BD38" s="1">
-        <v>388</v>
-      </c>
-      <c r="BE38" s="3"/>
-      <c r="BF38" s="3">
-        <v>44719.461111110999</v>
-      </c>
-      <c r="BG38" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH38" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI38" s="1">
-        <v>2</v>
-      </c>
-      <c r="BJ38" s="1">
-        <v>3</v>
-      </c>
-      <c r="BK38" s="1">
-        <v>10</v>
-      </c>
-      <c r="BL38" s="1">
-        <v>9</v>
-      </c>
-      <c r="BM38" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="BN38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>179</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F39" s="3">
-        <v>44715.578194444002</v>
-      </c>
-      <c r="G39" s="1">
-        <v>4</v>
-      </c>
-      <c r="H39" s="1">
-        <v>3</v>
-      </c>
-      <c r="I39" s="1">
-        <v>3</v>
-      </c>
-      <c r="J39" s="1">
-        <v>3</v>
-      </c>
-      <c r="K39" s="1">
-        <v>3</v>
-      </c>
-      <c r="L39" s="1">
-        <v>4</v>
-      </c>
-      <c r="M39" s="1">
-        <v>4</v>
-      </c>
-      <c r="N39" s="1">
-        <v>3</v>
-      </c>
-      <c r="O39" s="1">
-        <v>4</v>
-      </c>
-      <c r="P39" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>4</v>
-      </c>
-      <c r="R39" s="1">
-        <v>2</v>
-      </c>
-      <c r="S39" s="1">
-        <v>2</v>
-      </c>
-      <c r="T39" s="1">
-        <v>2</v>
-      </c>
-      <c r="U39" s="1">
-        <v>3</v>
-      </c>
-      <c r="V39" s="1">
-        <v>3</v>
-      </c>
-      <c r="W39" s="1">
-        <v>3</v>
-      </c>
-      <c r="X39" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y39" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z39" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA39" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB39" s="1">
-        <v>4</v>
-      </c>
-      <c r="AC39" s="1">
-        <v>75</v>
-      </c>
-      <c r="AD39" s="1">
-        <v>15</v>
-      </c>
-      <c r="AE39" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF39" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG39" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH39" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI39" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ39" s="1">
-        <v>22</v>
-      </c>
-      <c r="AK39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL39" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM39" s="2"/>
-      <c r="AN39" s="2"/>
-      <c r="AO39" s="1">
-        <v>124</v>
-      </c>
-      <c r="AP39" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ39" s="1">
-        <v>2</v>
-      </c>
-      <c r="AR39" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS39" s="1">
-        <v>4</v>
-      </c>
-      <c r="AT39" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU39" s="1">
-        <v>9</v>
-      </c>
-      <c r="AV39" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW39" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AX39" s="1"/>
-      <c r="AY39" s="2"/>
-      <c r="AZ39" s="1">
-        <v>4</v>
-      </c>
-      <c r="BA39" s="1">
-        <v>55</v>
-      </c>
-      <c r="BB39" s="1">
-        <v>84</v>
-      </c>
-      <c r="BC39" s="1">
-        <v>148</v>
-      </c>
-      <c r="BD39" s="1">
-        <v>287</v>
-      </c>
-      <c r="BE39" s="3"/>
-      <c r="BF39" s="3">
-        <v>44715.581516204002</v>
-      </c>
-      <c r="BG39" s="1">
-        <v>1</v>
-      </c>
-      <c r="BH39" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI39" s="1">
-        <v>3</v>
-      </c>
-      <c r="BJ39" s="1">
-        <v>3</v>
-      </c>
-      <c r="BK39" s="1">
-        <v>5</v>
-      </c>
-      <c r="BL39" s="1">
-        <v>3</v>
-      </c>
-      <c r="BM39" s="4">
-        <v>1.31</v>
-      </c>
-      <c r="BN39" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>183</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" s="3">
-        <v>44719.655393519002</v>
-      </c>
-      <c r="G40" s="1">
-        <v>3</v>
-      </c>
-      <c r="H40" s="1">
-        <v>3</v>
-      </c>
-      <c r="I40" s="1">
-        <v>3</v>
-      </c>
-      <c r="J40" s="1">
-        <v>3</v>
-      </c>
-      <c r="K40" s="1">
-        <v>3</v>
-      </c>
-      <c r="L40" s="1">
-        <v>3</v>
-      </c>
-      <c r="M40" s="1">
-        <v>3</v>
-      </c>
-      <c r="N40" s="1">
-        <v>3</v>
-      </c>
-      <c r="O40" s="1">
-        <v>3</v>
-      </c>
-      <c r="P40" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q40" s="1">
-        <v>3</v>
-      </c>
-      <c r="R40" s="1">
-        <v>4</v>
-      </c>
-      <c r="S40" s="1">
-        <v>3</v>
-      </c>
-      <c r="T40" s="1">
-        <v>3</v>
-      </c>
-      <c r="U40" s="1">
-        <v>3</v>
-      </c>
-      <c r="V40" s="1">
-        <v>3</v>
-      </c>
-      <c r="W40" s="1">
-        <v>3</v>
-      </c>
-      <c r="X40" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y40" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z40" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA40" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB40" s="1">
-        <v>3</v>
-      </c>
-      <c r="AC40" s="1">
-        <v>80</v>
-      </c>
-      <c r="AD40" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE40" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF40" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG40" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH40" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI40" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ40" s="1">
-        <v>32</v>
-      </c>
-      <c r="AK40" s="1">
-        <v>3</v>
-      </c>
-      <c r="AL40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN40" s="2"/>
-      <c r="AO40" s="1">
-        <v>216</v>
-      </c>
-      <c r="AP40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ40" s="1">
-        <v>8</v>
-      </c>
-      <c r="AR40" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS40" s="1"/>
-      <c r="AT40" s="1"/>
-      <c r="AU40" s="1"/>
-      <c r="AV40" s="1">
-        <v>-9</v>
-      </c>
-      <c r="AW40" s="2"/>
-      <c r="AX40" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY40" s="2"/>
-      <c r="AZ40" s="1">
-        <v>2</v>
-      </c>
-      <c r="BA40" s="1">
-        <v>86</v>
-      </c>
-      <c r="BB40" s="1">
-        <v>73</v>
-      </c>
-      <c r="BC40" s="1">
-        <v>150</v>
-      </c>
-      <c r="BD40" s="1">
-        <v>309</v>
-      </c>
-      <c r="BE40" s="3"/>
-      <c r="BF40" s="3">
-        <v>44719.740208333002</v>
-      </c>
-      <c r="BG40" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH40" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI40" s="1">
-        <v>2</v>
-      </c>
-      <c r="BJ40" s="1">
-        <v>3</v>
-      </c>
-      <c r="BK40" s="1">
-        <v>13</v>
-      </c>
-      <c r="BL40" s="1">
-        <v>9</v>
-      </c>
-      <c r="BM40" s="4">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="BN40" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>184</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F41" s="3">
-        <v>44720.445266203998</v>
-      </c>
-      <c r="G41" s="1">
-        <v>3</v>
-      </c>
-      <c r="H41" s="1">
-        <v>3</v>
-      </c>
-      <c r="I41" s="1">
-        <v>3</v>
-      </c>
-      <c r="J41" s="1">
-        <v>3</v>
-      </c>
-      <c r="K41" s="1">
-        <v>2</v>
-      </c>
-      <c r="L41" s="1">
-        <v>2</v>
-      </c>
-      <c r="M41" s="1">
-        <v>3</v>
-      </c>
-      <c r="N41" s="1">
-        <v>3</v>
-      </c>
-      <c r="O41" s="1">
-        <v>3</v>
-      </c>
-      <c r="P41" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>2</v>
-      </c>
-      <c r="R41" s="1">
-        <v>3</v>
-      </c>
-      <c r="S41" s="1">
-        <v>3</v>
-      </c>
-      <c r="T41" s="1">
-        <v>3</v>
-      </c>
-      <c r="U41" s="1">
-        <v>3</v>
-      </c>
-      <c r="V41" s="1">
-        <v>3</v>
-      </c>
-      <c r="W41" s="1">
-        <v>2</v>
-      </c>
-      <c r="X41" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y41" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z41" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA41" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB41" s="1">
-        <v>3</v>
-      </c>
-      <c r="AC41" s="1">
-        <v>40</v>
-      </c>
-      <c r="AD41" s="1">
-        <v>30</v>
-      </c>
-      <c r="AE41" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF41" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG41" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH41" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI41" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ41" s="1">
-        <v>23</v>
-      </c>
-      <c r="AK41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL41" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM41" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN41" s="2"/>
-      <c r="AO41" s="1">
-        <v>125</v>
-      </c>
-      <c r="AP41" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ41" s="1">
-        <v>8</v>
-      </c>
-      <c r="AR41" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS41" s="1">
-        <v>8</v>
-      </c>
-      <c r="AT41" s="1">
-        <v>2</v>
-      </c>
-      <c r="AU41" s="1">
-        <v>7</v>
-      </c>
-      <c r="AV41" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW41" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AX41" s="1"/>
-      <c r="AY41" s="2"/>
-      <c r="AZ41" s="1">
-        <v>3</v>
-      </c>
-      <c r="BA41" s="1">
-        <v>44</v>
-      </c>
-      <c r="BB41" s="1">
-        <v>85</v>
-      </c>
-      <c r="BC41" s="1">
-        <v>139</v>
-      </c>
-      <c r="BD41" s="1">
-        <v>268</v>
-      </c>
-      <c r="BE41" s="3"/>
-      <c r="BF41" s="3">
-        <v>44720.448379629997</v>
-      </c>
-      <c r="BG41" s="1">
-        <v>1</v>
-      </c>
-      <c r="BH41" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI41" s="1">
-        <v>3</v>
-      </c>
-      <c r="BJ41" s="1">
-        <v>3</v>
-      </c>
-      <c r="BK41" s="1">
-        <v>3</v>
-      </c>
-      <c r="BL41" s="1">
-        <v>1</v>
-      </c>
-      <c r="BM41" s="4">
-        <v>1.47</v>
-      </c>
-      <c r="BN41" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>186</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F42" s="3">
-        <v>44725.504768519</v>
-      </c>
-      <c r="G42" s="1">
-        <v>4</v>
-      </c>
-      <c r="H42" s="1">
-        <v>4</v>
-      </c>
-      <c r="I42" s="1">
-        <v>3</v>
-      </c>
-      <c r="J42" s="1">
-        <v>4</v>
-      </c>
-      <c r="K42" s="1">
-        <v>3</v>
-      </c>
-      <c r="L42" s="1">
-        <v>4</v>
-      </c>
-      <c r="M42" s="1">
-        <v>4</v>
-      </c>
-      <c r="N42" s="1">
-        <v>4</v>
-      </c>
-      <c r="O42" s="1">
-        <v>4</v>
-      </c>
-      <c r="P42" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>4</v>
-      </c>
-      <c r="R42" s="1">
-        <v>4</v>
-      </c>
-      <c r="S42" s="1">
-        <v>3</v>
-      </c>
-      <c r="T42" s="1">
-        <v>2</v>
-      </c>
-      <c r="U42" s="1">
-        <v>3</v>
-      </c>
-      <c r="V42" s="1">
-        <v>4</v>
-      </c>
-      <c r="W42" s="1">
-        <v>3</v>
-      </c>
-      <c r="X42" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y42" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z42" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA42" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB42" s="1">
-        <v>3</v>
-      </c>
-      <c r="AC42" s="1">
-        <v>80</v>
-      </c>
-      <c r="AD42" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE42" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF42" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG42" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH42" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI42" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ42" s="1">
-        <v>43</v>
-      </c>
-      <c r="AK42" s="1">
-        <v>9</v>
-      </c>
-      <c r="AL42" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM42" s="2"/>
-      <c r="AN42" s="2"/>
-      <c r="AO42" s="1">
-        <v>217</v>
-      </c>
-      <c r="AP42" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ42" s="1">
-        <v>5</v>
-      </c>
-      <c r="AR42" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS42" s="1"/>
-      <c r="AT42" s="1"/>
-      <c r="AU42" s="1"/>
-      <c r="AV42" s="1"/>
-      <c r="AW42" s="2"/>
-      <c r="AX42" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY42" s="2"/>
-      <c r="AZ42" s="1">
-        <v>3</v>
-      </c>
-      <c r="BA42" s="1">
-        <v>79</v>
-      </c>
-      <c r="BB42" s="1">
-        <v>25</v>
-      </c>
-      <c r="BC42" s="1">
-        <v>115</v>
-      </c>
-      <c r="BD42" s="1">
-        <v>219</v>
-      </c>
-      <c r="BE42" s="3"/>
-      <c r="BF42" s="3">
-        <v>44725.507314814997</v>
-      </c>
-      <c r="BG42" s="1">
-        <v>1</v>
-      </c>
-      <c r="BH42" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI42" s="1">
-        <v>3</v>
-      </c>
-      <c r="BJ42" s="1">
-        <v>3</v>
-      </c>
-      <c r="BK42" s="1">
-        <v>6</v>
-      </c>
-      <c r="BL42" s="1">
-        <v>3</v>
-      </c>
-      <c r="BM42" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="BN42" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
